--- a/src/test/data/employer.xlsx
+++ b/src/test/data/employer.xlsx
@@ -11,7 +11,7 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="80000"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
@@ -717,7 +717,7 @@
   <dimension ref="A1:G40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -735,7 +735,10 @@
       <c r="B1" s="1"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="1"/>
+      <c r="A2" s="1">
+        <f>ROW()-1</f>
+        <v>1</v>
+      </c>
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
